--- a/artifacts/notebook-filename-builder.xlsx
+++ b/artifacts/notebook-filename-builder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\agriculture-data-analytics\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2E485-3BEC-4A7E-BA00-885A02EE914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA3E553C-1DB2-4397-B2A0-F123ED1B0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{D1F18C80-916B-4B66-BF6B-A225AE7FA83F}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{D1F18C80-916B-4B66-BF6B-A225AE7FA83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Notebook" sheetId="1" r:id="rId1"/>
@@ -223,14 +223,14 @@
     <tableColumn id="4" xr3:uid="{220457D1-F020-4F73-B655-1BE6781E913D}" name="Number"/>
     <tableColumn id="2" xr3:uid="{84FCEFB5-C6F9-465F-A0CF-72791BC4B6B6}" name="Title"/>
     <tableColumn id="6" xr3:uid="{978BD92C-882B-4B12-9AFE-8195462B427E}" name="Name"/>
-    <tableColumn id="8" xr3:uid="{B76CF101-8356-41AF-8985-5D32CC3576CA}" name="Order" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{B76CF101-8356-41AF-8985-5D32CC3576CA}" name="Order" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(VLOOKUP(Table2[[#This Row],[Topic]],TopicTable[[#All],[Prefix]:[Number]], 2),"-",TEXT(Table2[[#This Row],[Number]],"00"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{089E3217-B828-427E-8C1D-6DD2FD6BCEB0}" name="Filename" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A3277067-4B11-4B7C-A87E-1923DFB226AC}" name="Markdown" dataDxfId="2">
-      <calculatedColumnFormula>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{A3277067-4B11-4B7C-A87E-1923DFB226AC}" name="Markdown" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -559,8 +559,8 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,12 +605,12 @@
         <v>1-01</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-1-01-cso-api.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-1-01-dc-cso-api</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [CSO API ](notebook-1-01-cso-api.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [CSO API ](notebook-1-01-dc-cso-api.ipynb)</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,12 +632,12 @@
         <v>1-02</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-1-02-eurostat-api.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-1-02-dc-eurostat-api</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [EuroStat API](notebook-1-02-eurostat-api.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [EuroStat API](notebook-1-02-dc-eurostat-api.ipynb)</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,12 +658,12 @@
         <v>1-03</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-1-03-ifa-ie-scraping.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-1-03-dc-ifa-ie-scraping</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish Farmers Association Scraping](notebook-1-03-ifa-ie-scraping.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish Farmers Association Scraping](notebook-1-03-dc-ifa-ie-scraping.ipynb)</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,12 +685,12 @@
         <v>1-04</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-1-04-twitter-api.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-1-04-dc-twitter-api</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Twitter API](notebook-1-04-twitter-api.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Twitter API](notebook-1-04-dc-twitter-api.ipynb)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,12 +711,12 @@
         <v>2-01</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-2-01-irish-beef-exports.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-2-01-eda-irish-beef-exports</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [CSO Irish Beef Exports](notebook-2-01-irish-beef-exports.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [CSO Irish Beef Exports](notebook-2-01-eda-irish-beef-exports.ipynb)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,12 +737,12 @@
         <v>2-02</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-2-02-irish-bovine-tuberculosis.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-2-02-eda-irish-bovine-tuberculosis</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [CSO Irish Bovine Tuberculosis](notebook-2-02-irish-bovine-tuberculosis.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [CSO Irish Bovine Tuberculosis](notebook-2-02-eda-irish-bovine-tuberculosis.ipynb)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,12 +763,12 @@
         <v>2-03</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-2-03-irish-milk-production.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-2-03-eda-irish-milk-production</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [CSO Irish Milk Production](notebook-2-03-irish-milk-production.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [CSO Irish Milk Production](notebook-2-03-eda-irish-milk-production.ipynb)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -790,12 +790,12 @@
         <v>2-04</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-2-04-clean-ifa-ie-beef-article-text.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-2-04-eda-clean-ifa-ie-beef-article-text</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Clean ifa.ie Beef Article Text](notebook-2-04-clean-ifa-ie-beef-article-text.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Clean ifa.ie Beef Article Text](notebook-2-04-eda-clean-ifa-ie-beef-article-text.ipynb)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,12 +817,12 @@
         <v>2-05</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-2-05-un-beef-exports.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-2-05-eda-un-beef-exports</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [UN Beef Exports](notebook-2-05-un-beef-exports.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [UN Beef Exports](notebook-2-05-eda-un-beef-exports.ipynb)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,12 +844,12 @@
         <v>3-01</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-3-01-irish-beef-exports.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-3-01-sa-irish-beef-exports</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish Beef Exports](notebook-3-01-irish-beef-exports.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish Beef Exports](notebook-3-01-sa-irish-beef-exports.ipynb)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,12 +871,12 @@
         <v>3-02</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-3-02-irish-bovine-tuberculosis.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-3-02-sa-irish-bovine-tuberculosis</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish Bovine Tuberculosis](notebook-3-02-irish-bovine-tuberculosis.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish Bovine Tuberculosis](notebook-3-02-sa-irish-bovine-tuberculosis.ipynb)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -898,12 +898,12 @@
         <v>3-03</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-3-03-ifa-ie-beef-articles-n-grams-and-topics.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-3-03-sa-ifa-ie-beef-articles-n-grams-and-topics</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [ifa.ie Beef Articles N-grams and topics](notebook-3-03-ifa-ie-beef-articles-n-grams-and-topics.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [ifa.ie Beef Articles N-grams and topics](notebook-3-03-sa-ifa-ie-beef-articles-n-grams-and-topics.ipynb)</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,12 +925,12 @@
         <v>4-01</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-4-01-irish-bovine-tuberculosis.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-4-01-st-irish-bovine-tuberculosis</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish Bovine Tuberculosis](notebook-4-01-irish-bovine-tuberculosis.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish Bovine Tuberculosis](notebook-4-01-st-irish-bovine-tuberculosis.ipynb)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,12 +952,12 @@
         <v>4-02</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-4-02-irish-milk-production.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-4-02-st-irish-milk-production</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish Milk Production](notebook-4-02-irish-milk-production.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish Milk Production](notebook-4-02-st-irish-milk-production.ipynb)</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,12 +979,12 @@
         <v>5-01</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-5-01-irish-bovine-tuberculosis.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-5-01-ml-irish-bovine-tuberculosis</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish Bovine Tuberculosis](notebook-5-01-irish-bovine-tuberculosis.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish Bovine Tuberculosis](notebook-5-01-ml-irish-bovine-tuberculosis.ipynb)</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,12 +1006,12 @@
         <v>5-02</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-5-02-irish-beef-exports.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-5-02-ml-irish-beef-exports</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [Irish beef exports](notebook-5-02-irish-beef-exports.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [Irish beef exports](notebook-5-02-ml-irish-beef-exports.ipynb)</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,18 +1033,18 @@
         <v>6-01</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""),".ipynb")</f>
-        <v>notebook-6-01-un-beef-exports.ipynb</v>
+        <f>CONCATENATE("notebook-",Table2[[#This Row],[Order]],"-",Table2[[#This Row],[Topic]],"-",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(Table2[[#This Row],[Name]])),".", "-")," ", "-"),",", ""))</f>
+        <v>notebook-6-01-dv-un-beef-exports</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],")")</f>
-        <v>- [UN Beef Exports](notebook-6-01-un-beef-exports.ipynb)</v>
+        <f>CONCATENATE("- [",Table2[[#This Row],[Title]],"](",Table2[[#This Row],[Filename]],".ipynb",")")</f>
+        <v>- [UN Beef Exports](notebook-6-01-dv-un-beef-exports.ipynb)</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10 A11:A18" xr:uid="{C60EC1B7-7383-497B-ADD9-2D61D25345C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18" xr:uid="{C60EC1B7-7383-497B-ADD9-2D61D25345C8}">
       <formula1>INDIRECT("TopicTable[Prefix]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -1154,4 +1154,248 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CDFA7CC8B3A7541849CB92136608249" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b4b145dbde780bc3c33c94609ac9b2f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f9ae7188-ff30-458f-a35c-7867f695fd4f" xmlns:ns4="9579d1ab-bffb-49a4-bf19-20f3b3d8951b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0c7ad1d851331ab7e9872b1328e41d" ns3:_="" ns4:_="">
+    <xsd:import namespace="f9ae7188-ff30-458f-a35c-7867f695fd4f"/>
+    <xsd:import namespace="9579d1ab-bffb-49a4-bf19-20f3b3d8951b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f9ae7188-ff30-458f-a35c-7867f695fd4f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9579d1ab-bffb-49a4-bf19-20f3b3d8951b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6728A72-06C3-46D2-9BDE-156D7C19B731}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D31F5D3A-8F48-4FA0-881F-CBA97A621586}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f9ae7188-ff30-458f-a35c-7867f695fd4f"/>
+    <ds:schemaRef ds:uri="9579d1ab-bffb-49a4-bf19-20f3b3d8951b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A3E4FF-6294-47F5-B0F1-A91328671D3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9579d1ab-bffb-49a4-bf19-20f3b3d8951b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f9ae7188-ff30-458f-a35c-7867f695fd4f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>